--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\projects\PycharmProjects\beer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AF76D7-7C72-4711-A5A5-02E12DF8EA21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9568F21-1B41-424B-9BB3-AF74C85A5AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="16570" windowHeight="8950" xr2:uid="{B085CBB3-BE45-4267-B265-85ED7EA00774}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,7 +456,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44191</v>
+        <v>44161</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>44191</v>
+        <v>44161</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>44191</v>
+        <v>44161</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>44191</v>
+        <v>44161</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\projects\PycharmProjects\beer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9568F21-1B41-424B-9BB3-AF74C85A5AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC77F6C-EA5C-45A2-9870-B5AF4E181F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="16570" windowHeight="8950" xr2:uid="{B085CBB3-BE45-4267-B265-85ED7EA00774}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="16570" windowHeight="8950" xr2:uid="{B085CBB3-BE45-4267-B265-85ED7EA00774}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -66,7 +66,10 @@
     <t>G</t>
   </si>
   <si>
-    <t>TCPA</t>
+    <t>NumUnits</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340CA89C-F800-48BA-AE25-071BA324DF40}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,7 +437,7 @@
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +456,14 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44161</v>
       </c>
@@ -473,8 +482,14 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44161</v>
       </c>
@@ -493,8 +508,14 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44161</v>
       </c>
@@ -513,8 +534,14 @@
       <c r="F4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44161</v>
       </c>
@@ -533,45 +560,531 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>44191</v>
+        <v>44161</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D19">
         <v>5.12</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>44191</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>75</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="D7">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
         <v>5.12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>75</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>5.12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>75</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>5.12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>75</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\projects\PycharmProjects\beer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC77F6C-EA5C-45A2-9870-B5AF4E181F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BDDA7F-DC77-4D81-8F2A-9C07C1D0E45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="16570" windowHeight="8950" xr2:uid="{B085CBB3-BE45-4267-B265-85ED7EA00774}"/>
   </bookViews>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340CA89C-F800-48BA-AE25-071BA324DF40}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,6 +435,7 @@
     <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -483,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -509,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>15.35</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -535,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -561,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>75.989999999999995</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -587,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -613,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>15.35</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -639,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -665,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -691,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>15.35</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -717,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -743,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -769,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>15.35</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -795,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -821,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -847,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -873,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>15.35</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -899,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -910,7 +911,7 @@
         <v>44163</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -925,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -951,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -977,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>75</v>
+        <v>75.989999999999995</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1003,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1029,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>75</v>
+        <v>75.989999999999995</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -1055,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1081,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>75</v>
+        <v>75.989999999999995</v>
       </c>
       <c r="H25">
         <v>2</v>

--- a/Transactions.xlsx
+++ b/Transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!\projects\PycharmProjects\beer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BDDA7F-DC77-4D81-8F2A-9C07C1D0E45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF52D0B0-E3CC-4BAF-9115-A48FE50B1FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="16570" windowHeight="8950" xr2:uid="{B085CBB3-BE45-4267-B265-85ED7EA00774}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340CA89C-F800-48BA-AE25-071BA324DF40}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -911,7 +911,7 @@
         <v>44163</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>60</v>
+        <v>75.989999999999995</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -934,39 +934,39 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>5.12</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>5.25</v>
+        <v>60</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>44165</v>
+        <v>44163</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>5.12</v>
@@ -986,39 +986,39 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>44166</v>
+        <v>44163</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>5.12</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>5.25</v>
+        <v>60</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>44167</v>
+        <v>44163</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>5.12</v>
@@ -1038,33 +1038,33 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>44168</v>
+        <v>44163</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>5.12</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>5.25</v>
+        <v>60</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>44169</v>
+        <v>44163</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1085,6 +1085,630 @@
         <v>75.989999999999995</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>5.12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>60</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>5.12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>5.12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>5.12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>5.12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>60</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>5.12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>5.12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>60</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>5.12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>5.12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>60</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>5.12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>5.12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>60</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>5.12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>5.12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>60</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>5.12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>5.12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>60</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>5.12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>60</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>5.12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>5.12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>60</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>5.25</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>5.12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>5.25</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>5.12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>5.25</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>5.12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="H49">
         <v>2</v>
       </c>
     </row>
